--- a/xls/14048-169-250016182.xlsx
+++ b/xls/14048-169-250016182.xlsx
@@ -963,7 +963,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์</t>
+          <t>ค่าวิสัญญ์แพทย์</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่าวิสัญญ์แพทย์ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์โดยเคมีบำบัด</t>
+          <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">

--- a/xls/14048-169-250016182.xlsx
+++ b/xls/14048-169-250016182.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ค่ายาและค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าาตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
